--- a/biology/Zoologie/Austropetalia/Austropetalia.xlsx
+++ b/biology/Zoologie/Austropetalia/Austropetalia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Austropetalia est un genre de libellules de la famille des Austropetaliidae (sous-ordre des Anisoptères, ordre des Odonates)[1]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Austropetalia est un genre de libellules de la famille des Austropetaliidae (sous-ordre des Anisoptères, ordre des Odonates). 
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On retrouve les libellules de ce genre en Australie[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On retrouve les libellules de ce genre en Australie.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (16 janvier 2024)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (16 janvier 2024) :
 Austropetalia annaliese Theischinger, 2013
 Austropetalia patricia (Tillyard, 1910)
 Austropetalia tonyana Theischinger, 1995</t>
@@ -575,9 +591,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Austropetalia Tillyard, 1916[3],[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Austropetalia Tillyard, 1916,.
 </t>
         </is>
       </c>
@@ -606,7 +624,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(en) R. J. Tillyard, « Life-Histories and Descriptions of Australian Æschninae; with a Description of a New Form of Telephlebia », Journal of the Linnean Society of London, Zoology, Londres, Academic Press, vol. 33, no 222,‎ juillet 1916, p. 1-83 (ISSN 0368-2935 et 2378-5314, OCLC 1680906, DOI 10.1111/J.1096-3642.1916.TB00253.X, lire en ligne)</t>
         </is>
